--- a/grille_score_reg_log.xlsx
+++ b/grille_score_reg_log.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moreau\Documents\Cours\3A\Scoring\Projet-scoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27282CD0-A79C-450C-AC61-4382D0DB4A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4838AA1D-70A7-48F4-A76F-2A67C815D279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Nom de la variable</t>
   </si>
@@ -51,9 +60,6 @@
     <t>Coefficient β</t>
   </si>
   <si>
-    <t>Points / 1000</t>
-  </si>
-  <si>
     <t>Contribution de la variable</t>
   </si>
   <si>
@@ -84,35 +90,65 @@
     <t>Moyennes des mouvements d'affaire (tous contrats)</t>
   </si>
   <si>
-    <t>1.0230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9939 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4547 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7838 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7429 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4587 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7418 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3207 </t>
+    <t>Points /1000</t>
+  </si>
+  <si>
+    <t>x &lt;= 3,5 jours</t>
+  </si>
+  <si>
+    <t>3,5 jours &lt; x &lt;= 27,5 jours</t>
+  </si>
+  <si>
+    <t>27,5 jours &lt; x</t>
+  </si>
+  <si>
+    <t>11,5 jours &lt; x</t>
+  </si>
+  <si>
+    <t>x &lt;= 11,5 jours</t>
+  </si>
+  <si>
+    <t>x &gt; -403533.5 €</t>
+  </si>
+  <si>
+    <t>x &lt;= -403533.5 €</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1811925 € &lt; x</t>
+  </si>
+  <si>
+    <t>14156 € &lt; x &lt;= 1811925 €</t>
+  </si>
+  <si>
+    <t>x &lt;= 14156 €</t>
+  </si>
+  <si>
+    <t>152727.5 € &lt; x</t>
+  </si>
+  <si>
+    <t>49.5 € &lt; x &lt;= 152727.5 €</t>
+  </si>
+  <si>
+    <t>x &lt;= 49,5 €</t>
+  </si>
+  <si>
+    <t>Tx de défaut &lt;= 5%</t>
+  </si>
+  <si>
+    <t>5% &lt; Tx de défaut &lt;= 10%</t>
+  </si>
+  <si>
+    <t>10% &lt; Tx de défaut &lt;= 15%</t>
+  </si>
+  <si>
+    <t>15% &lt; Tx de défaut</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,26 +157,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FFD4D4D4"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,12 +174,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
-        <bgColor rgb="FFDDEBF7"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDF3821"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -162,26 +223,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -190,6 +317,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDF3821"/>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -464,221 +597,591 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="60.7265625" customWidth="1"/>
-    <col min="2" max="2" width="26.6328125" customWidth="1"/>
-    <col min="3" max="3" width="9.90625" customWidth="1"/>
-    <col min="4" max="4" width="34.81640625" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="64.453125" customWidth="1"/>
+    <col min="2" max="2" width="37.81640625" customWidth="1"/>
+    <col min="3" max="3" width="5.54296875" customWidth="1"/>
+    <col min="4" max="4" width="31.453125" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" customWidth="1"/>
     <col min="6" max="6" width="12.81640625" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" customWidth="1"/>
-    <col min="8" max="8" width="13.90625" customWidth="1"/>
-    <col min="9" max="9" width="11.90625" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.86280000000000001</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="G2" s="4">
+        <f>ABS((F2-F3)/F3)</f>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <f>ROUND(1000*ABS(H2-H4)/(H4+H6+H8+H11+H14),0)</f>
+        <v>284</v>
+      </c>
+      <c r="J2" s="16">
+        <v>0.28399999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4">
+        <v>7.2400000000000006E-2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G13" si="0">ABS((F3-F4)/F4)</f>
+        <v>0.80392156862745101</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="I3" s="3">
+        <f>ROUND(1000*ABS(H3-H4)/(H4+H6+H8+H11+H14),0)</f>
+        <v>138</v>
+      </c>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="3">
+        <v>1.9939</v>
+      </c>
+      <c r="I4" s="3">
+        <f>1000*ABS(H4-H4)/(H4+H6+H8+H11+H14)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.93159999999999998</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <f>ROUND(1000*ABS(H5-H6)/(H4+H6+H8+H11+H14),0)</f>
+        <v>65</v>
+      </c>
+      <c r="J5" s="16">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="12">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3">
+        <v>0.45469999999999999</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="D7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.82250000000000001</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91304347826086962</v>
+      </c>
+      <c r="H7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3">
+      <c r="I7" s="3">
+        <f>ROUND(1000*ABS(H7-H8)/(H4+H6+H8+H11+H14),0)</f>
+        <v>254</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="12">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4">
+      <c r="D8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.17749999999999999</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="3">
+        <v>1.7838000000000001</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.53039999999999998</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <f>ROUND(1000*ABS(H9-H11)/(H4+H6+H8+H11+H14),0)</f>
+        <v>208</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.31859999999999999</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.7429</v>
+      </c>
+      <c r="I10" s="3">
+        <f>ROUND(1000*ABS(H10-H11)/(H4+H6+H8+H11+H14),0)</f>
+        <v>102</v>
+      </c>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="12">
         <v>3</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
+      <c r="D11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.151</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3">
+        <v>1.4587000000000001</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="D12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.61650000000000005</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5"/>
-      <c r="C6">
+      <c r="I12" s="3">
+        <f>ROUND(1000*ABS(H12-H14)/(H4+H6+H8+H11+H14),0)</f>
+        <v>188</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="7">
         <v>2</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="D13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.27739999999999998</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.57142857142857151</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.74180000000000001</v>
+      </c>
+      <c r="I13" s="3">
+        <f>ROUND(1000*ABS(H13-H14)/(H4+H6+H8+H11+H14),0)</f>
+        <v>83</v>
+      </c>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="10">
+        <v>3</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.1061</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="3">
+        <v>1.3207</v>
+      </c>
+      <c r="I14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5"/>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="5"/>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="5"/>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="5"/>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5"/>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D16" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D17" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D18" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D19" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E24" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="16">
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B11"/>
   </mergeCells>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{70927E8E-0510-4678-8F7F-33438A6BA9C7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E14">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9CE17DB3-E528-466D-8351-34AF2117E355}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E14">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DE8983E3-7BC0-4B4B-93FD-608832B34B00}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F14">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{45F91763-A52D-4C35-8653-5A647B2CE759}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{70927E8E-0510-4678-8F7F-33438A6BA9C7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9CE17DB3-E528-466D-8351-34AF2117E355}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2:E14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DE8983E3-7BC0-4B4B-93FD-608832B34B00}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E3:E14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{45F91763-A52D-4C35-8653-5A647B2CE759}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F2:F14</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/grille_score_reg_log.xlsx
+++ b/grille_score_reg_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moreau\Documents\Cours\3A\Scoring\Projet-scoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4838AA1D-70A7-48F4-A76F-2A67C815D279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECFC433-AC36-4E2E-B73D-1256C875EFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -293,15 +293,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -309,6 +300,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -600,7 +600,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -624,10 +624,10 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
@@ -648,10 +648,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="5">
@@ -677,13 +677,13 @@
         <f>ROUND(1000*ABS(H2-H4)/(H4+H6+H8+H11+H14),0)</f>
         <v>284</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="13">
         <v>0.28399999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="7">
         <v>2</v>
       </c>
@@ -707,11 +707,11 @@
         <f>ROUND(1000*ABS(H3-H4)/(H4+H6+H8+H11+H14),0)</f>
         <v>138</v>
       </c>
-      <c r="J3" s="17"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="12">
         <v>3</v>
       </c>
@@ -732,13 +732,13 @@
         <f>1000*ABS(H4-H4)/(H4+H6+H8+H11+H14)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="18"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="5">
@@ -764,13 +764,13 @@
         <f>ROUND(1000*ABS(H5-H6)/(H4+H6+H8+H11+H14),0)</f>
         <v>65</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="13">
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="12">
         <v>2</v>
       </c>
@@ -790,13 +790,13 @@
       <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="18"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="5">
@@ -822,13 +822,13 @@
         <f>ROUND(1000*ABS(H7-H8)/(H4+H6+H8+H11+H14),0)</f>
         <v>254</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="13">
         <v>0.254</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="12">
         <v>2</v>
       </c>
@@ -848,13 +848,13 @@
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="18"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="5">
@@ -880,13 +880,13 @@
         <f>ROUND(1000*ABS(H9-H11)/(H4+H6+H8+H11+H14),0)</f>
         <v>208</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="13">
         <v>0.20799999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="7">
         <v>2</v>
       </c>
@@ -910,11 +910,11 @@
         <f>ROUND(1000*ABS(H10-H11)/(H4+H6+H8+H11+H14),0)</f>
         <v>102</v>
       </c>
-      <c r="J10" s="17"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="12">
         <v>3</v>
       </c>
@@ -934,13 +934,13 @@
       <c r="I11" s="3">
         <v>0</v>
       </c>
-      <c r="J11" s="18"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="5">
@@ -966,13 +966,13 @@
         <f>ROUND(1000*ABS(H12-H14)/(H4+H6+H8+H11+H14),0)</f>
         <v>188</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="13">
         <v>0.188</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="7">
         <v>2</v>
       </c>
@@ -996,11 +996,11 @@
         <f>ROUND(1000*ABS(H13-H14)/(H4+H6+H8+H11+H14),0)</f>
         <v>83</v>
       </c>
-      <c r="J13" s="17"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="10">
         <v>3</v>
       </c>
@@ -1020,7 +1020,7 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="18"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D16" s="6" t="s">
@@ -1050,22 +1050,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J12:J14"/>
   </mergeCells>
   <conditionalFormatting sqref="E2">
     <cfRule type="dataBar" priority="5">

--- a/grille_score_reg_log.xlsx
+++ b/grille_score_reg_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moreau\Documents\Cours\3A\Scoring\Projet-scoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECFC433-AC36-4E2E-B73D-1256C875EFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9DD765-34AB-4228-992F-7D4D2515755B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>Coefficient β</t>
   </si>
   <si>
-    <t>Contribution de la variable</t>
-  </si>
-  <si>
     <t>CRTOC_AG_NBJCRE_2T_IND_0009</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>CRTOC_MOY_MVTAFF_IND_0010</t>
   </si>
   <si>
-    <t xml:space="preserve">Nombre de jours débiteurs du mois  (consécutifs et non consécutifs)     </t>
-  </si>
-  <si>
     <t>Somme du nombre de jours créditeurs sur les 2 derniers trimestres</t>
   </si>
   <si>
@@ -142,6 +136,12 @@
   </si>
   <si>
     <t>15% &lt; Tx de défaut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre de jours débiteurs du mois     </t>
+  </si>
+  <si>
+    <t>Contribution</t>
   </si>
 </sst>
 </file>
@@ -279,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -293,6 +293,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -302,14 +308,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,66 +617,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="64.453125" customWidth="1"/>
-    <col min="2" max="2" width="37.81640625" customWidth="1"/>
+    <col min="1" max="1" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="30.90625" customWidth="1"/>
     <col min="3" max="3" width="5.54296875" customWidth="1"/>
-    <col min="4" max="4" width="31.453125" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1"/>
-    <col min="7" max="7" width="20.54296875" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="4" max="4" width="22.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+    <col min="10" max="10" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
+      <c r="I1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="4">
         <v>0.86280000000000001</v>
@@ -677,18 +695,18 @@
         <f>ROUND(1000*ABS(H2-H4)/(H4+H6+H8+H11+H14),0)</f>
         <v>284</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="15">
         <v>0.28399999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="7">
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="4">
         <v>7.2400000000000006E-2</v>
@@ -707,16 +725,16 @@
         <f>ROUND(1000*ABS(H3-H4)/(H4+H6+H8+H11+H14),0)</f>
         <v>138</v>
       </c>
-      <c r="J3" s="14"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="12">
         <v>3</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4">
         <v>6.4799999999999996E-2</v>
@@ -732,20 +750,20 @@
         <f>1000*ABS(H4-H4)/(H4+H6+H8+H11+H14)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="15"/>
+      <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>9</v>
+      <c r="A5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4">
         <v>0.93159999999999998</v>
@@ -764,18 +782,18 @@
         <f>ROUND(1000*ABS(H5-H6)/(H4+H6+H8+H11+H14),0)</f>
         <v>65</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="15">
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
+    <row r="6" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="21"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="12">
         <v>2</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="4">
         <v>6.8400000000000002E-2</v>
@@ -790,20 +808,20 @@
       <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="15"/>
+      <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>10</v>
+      <c r="A7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4">
         <v>0.82250000000000001</v>
@@ -822,18 +840,18 @@
         <f>ROUND(1000*ABS(H7-H8)/(H4+H6+H8+H11+H14),0)</f>
         <v>254</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="15">
         <v>0.254</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+    <row r="8" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="12">
         <v>2</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" s="4">
         <v>0.17749999999999999</v>
@@ -848,20 +866,20 @@
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="15"/>
+      <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>11</v>
+      <c r="A9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4">
         <v>0.53039999999999998</v>
@@ -880,18 +898,18 @@
         <f>ROUND(1000*ABS(H9-H11)/(H4+H6+H8+H11+H14),0)</f>
         <v>208</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="15">
         <v>0.20799999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="7">
         <v>2</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="4">
         <v>0.31859999999999999</v>
@@ -910,16 +928,16 @@
         <f>ROUND(1000*ABS(H10-H11)/(H4+H6+H8+H11+H14),0)</f>
         <v>102</v>
       </c>
-      <c r="J10" s="14"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="12">
         <v>3</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11" s="4">
         <v>0.151</v>
@@ -934,20 +952,20 @@
       <c r="I11" s="3">
         <v>0</v>
       </c>
-      <c r="J11" s="15"/>
+      <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>12</v>
+      <c r="A12" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" s="4">
         <v>0.61650000000000005</v>
@@ -966,18 +984,18 @@
         <f>ROUND(1000*ABS(H12-H14)/(H4+H6+H8+H11+H14),0)</f>
         <v>188</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="15">
         <v>0.188</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="7">
         <v>2</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" s="4">
         <v>0.27739999999999998</v>
@@ -996,16 +1014,16 @@
         <f>ROUND(1000*ABS(H13-H14)/(H4+H6+H8+H11+H14),0)</f>
         <v>83</v>
       </c>
-      <c r="J13" s="14"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="10">
         <v>3</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E14" s="4">
         <v>0.1061</v>
@@ -1020,26 +1038,26 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="15"/>
+      <c r="J14" s="17"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D17" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D18" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D19" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.35">
@@ -1050,22 +1068,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="J12:J14"/>
   </mergeCells>
   <conditionalFormatting sqref="E2">
     <cfRule type="dataBar" priority="5">
